--- a/data/food_drink_trivia_results.xlsx
+++ b/data/food_drink_trivia_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Trivia/food_drink_trivia/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445CFEEA-CAF2-C242-843D-81A3E4356487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDA9F05-F1A8-AD4C-9A03-7C8D197C4AE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15760" xr2:uid="{283CCA2A-C3D6-8F49-8CBB-1552C6AB69C2}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="16"/>
@@ -541,31 +541,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>1.5</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
         <v>3.5</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>1.5</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9">

--- a/data/food_drink_trivia_results.xlsx
+++ b/data/food_drink_trivia_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Trivia/food_drink_trivia/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDA9F05-F1A8-AD4C-9A03-7C8D197C4AE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A366FC03-4C8D-144A-9E77-1ABB25ADAB04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15760" xr2:uid="{283CCA2A-C3D6-8F49-8CBB-1552C6AB69C2}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="16"/>
@@ -477,31 +477,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="D2">
         <f>B2+C2</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="F2">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <f>F2+G2</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I2">
         <f>D2+E2+H2</f>
-        <v>10</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -509,31 +509,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D8" si="0">B3+C3</f>
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H8" si="1">F3+G3</f>
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I8" si="2">D3+E3+H3</f>
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -541,10 +541,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
@@ -573,31 +573,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="C5">
         <v>1.5</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
         <v>3.5</v>
       </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
       <c r="G5">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="6" spans="1:9">

--- a/data/food_drink_trivia_results.xlsx
+++ b/data/food_drink_trivia_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Trivia/food_drink_trivia/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A366FC03-4C8D-144A-9E77-1ABB25ADAB04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3B2790-1578-0545-B60F-A62186B0B730}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15760" xr2:uid="{283CCA2A-C3D6-8F49-8CBB-1552C6AB69C2}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="16"/>
@@ -519,7 +519,7 @@
         <v>6</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>4.5</v>
@@ -533,7 +533,7 @@
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I8" si="2">D3+E3+H3</f>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -669,31 +669,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>3.5</v>
+      </c>
+      <c r="G8">
         <v>4</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>1.5</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/food_drink_trivia_results.xlsx
+++ b/data/food_drink_trivia_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Trivia/food_drink_trivia/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3B2790-1578-0545-B60F-A62186B0B730}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C813A014-160A-794D-9E38-32BD99939436}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15760" xr2:uid="{283CCA2A-C3D6-8F49-8CBB-1552C6AB69C2}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>Team Brian Drumm</t>
   </si>
   <si>
-    <t>Team Liz</t>
-  </si>
-  <si>
     <t>Team Marty Drumm</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>Artist</t>
+  </si>
+  <si>
+    <t>Team Lizzy Drumm</t>
   </si>
 </sst>
 </file>
@@ -438,38 +438,38 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:9" ht="17">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -538,7 +538,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>5.5</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>4.5</v>
@@ -602,39 +602,39 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>0.5</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>3</v>

--- a/data/food_drink_trivia_results.xlsx
+++ b/data/food_drink_trivia_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Trivia/food_drink_trivia/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C813A014-160A-794D-9E38-32BD99939436}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C54F373-416A-844E-BE01-810202206507}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15760" xr2:uid="{283CCA2A-C3D6-8F49-8CBB-1552C6AB69C2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Team Norris/Drumm</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Team Lizzy Drumm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Neal Drumm </t>
   </si>
 </sst>
 </file>
@@ -435,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A047E1F-6031-304D-BD6D-43392A18E147}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="16"/>
@@ -696,6 +699,38 @@
         <v>14</v>
       </c>
     </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9" si="3">B9+C9</f>
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>4.5</v>
+      </c>
+      <c r="G9">
+        <v>2.5</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9" si="4">F9+G9</f>
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9" si="5">D9+E9+H9</f>
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/food_drink_trivia_results.xlsx
+++ b/data/food_drink_trivia_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Trivia/food_drink_trivia/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C54F373-416A-844E-BE01-810202206507}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B94650-3F80-404C-ACC1-65E7448AE393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15760" xr2:uid="{283CCA2A-C3D6-8F49-8CBB-1552C6AB69C2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Team Norris/Drumm</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Team McCanns</t>
-  </si>
-  <si>
-    <t>Team Dugan</t>
   </si>
   <si>
     <t>Team Brian Noonan</t>
@@ -438,41 +435,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A047E1F-6031-304D-BD6D-43392A18E147}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:9" ht="17">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -518,7 +515,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D8" si="0">B3+C3</f>
+        <f t="shared" ref="D3:D7" si="0">B3+C3</f>
         <v>6</v>
       </c>
       <c r="E3">
@@ -531,17 +528,17 @@
         <v>3.5</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H8" si="1">F3+G3</f>
+        <f t="shared" ref="H3:H7" si="1">F3+G3</f>
         <v>8</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I8" si="2">D3+E3+H3</f>
+        <f t="shared" ref="I3:I7" si="2">D3+E3+H3</f>
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>5.5</v>
@@ -592,15 +589,15 @@
         <v>3.5</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>17.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -621,18 +618,18 @@
         <v>3</v>
       </c>
       <c r="F6">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>1.5</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>10.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -640,95 +637,63 @@
         <v>4</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>0.5</v>
-      </c>
-      <c r="C7">
-        <v>1.5</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="G7">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D8" si="3">B8+C8</f>
+        <v>9</v>
+      </c>
+      <c r="E8">
         <v>3.5</v>
       </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
       <c r="F8">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
+        <f t="shared" ref="H8" si="4">F8+G8</f>
+        <v>7</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ref="D9" si="3">B9+C9</f>
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>4.5</v>
-      </c>
-      <c r="G9">
-        <v>2.5</v>
-      </c>
-      <c r="H9">
-        <f t="shared" ref="H9" si="4">F9+G9</f>
-        <v>7</v>
-      </c>
-      <c r="I9">
-        <f t="shared" ref="I9" si="5">D9+E9+H9</f>
-        <v>20</v>
+        <f t="shared" ref="I8" si="5">D8+E8+H8</f>
+        <v>19.5</v>
       </c>
     </row>
   </sheetData>
